--- a/DOCUMENTACION Hotel RCA/GuiaPMBOK/2.-Planifiacion/4.-Gestion Costos/Puntos de Funcion SWGH-RCA.xlsx
+++ b/DOCUMENTACION Hotel RCA/GuiaPMBOK/2.-Planifiacion/4.-Gestion Costos/Puntos de Funcion SWGH-RCA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\universidad\7 semestre\Programacion III\HotelRCA\DOCUMENTACION Hotel RCA\GuiaPMBOK\2.-Planifiacion\4.-Gestion Costos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos gomez\Septimo Semestre\Administracion Proyectos Software\HotelRCA\DOCUMENTACION Hotel RCA\GuiaPMBOK\2.-Planifiacion\4.-Gestion Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4635" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Limites del Sistema" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="263">
   <si>
     <t>ILF</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Aporte</t>
   </si>
   <si>
-    <t>Req (1)</t>
-  </si>
-  <si>
     <t>Req (1.4)</t>
   </si>
   <si>
@@ -377,18 +374,9 @@
     <t>Generar Reservacion</t>
   </si>
   <si>
-    <t>Req(9.2)</t>
-  </si>
-  <si>
     <t>Impresión Factura</t>
   </si>
   <si>
-    <t>Req (9.4)</t>
-  </si>
-  <si>
-    <t>Req (9.1)</t>
-  </si>
-  <si>
     <t>Generar Boleto</t>
   </si>
   <si>
@@ -417,21 +405,6 @@
   </si>
   <si>
     <t>Reporte de Boletos</t>
-  </si>
-  <si>
-    <t>Req(2)</t>
-  </si>
-  <si>
-    <t>Req (3)</t>
-  </si>
-  <si>
-    <t>Req (6)</t>
-  </si>
-  <si>
-    <t>Req (7)</t>
-  </si>
-  <si>
-    <t>Req (8)</t>
   </si>
   <si>
     <t>FICHERO LOGICO INTERNOS</t>
@@ -528,9 +501,6 @@
     <t>Req(2.4)</t>
   </si>
   <si>
-    <t>Req (4)</t>
-  </si>
-  <si>
     <t>Reporte Reservacion</t>
   </si>
   <si>
@@ -592,15 +562,6 @@
   </si>
   <si>
     <t>Listar Choferes</t>
-  </si>
-  <si>
-    <t>Reporte de Factura</t>
-  </si>
-  <si>
-    <t>Reporte de Encomiendas</t>
-  </si>
-  <si>
-    <t>Req (9.5)</t>
   </si>
   <si>
     <t>Salida en Pantalla de Control Activo_Pasivo (Entrada)</t>
@@ -991,6 +952,18 @@
   </si>
   <si>
     <t>Reporte Habitacion</t>
+  </si>
+  <si>
+    <t>Reporte Ingresos</t>
+  </si>
+  <si>
+    <t>Reporte Egresos</t>
+  </si>
+  <si>
+    <t>Reporte Productos</t>
+  </si>
+  <si>
+    <t>RF()</t>
   </si>
 </sst>
 </file>
@@ -1840,84 +1813,6 @@
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1966,6 +1861,84 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2288,58 +2261,58 @@
   <sheetData>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="94" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="96" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="96" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>136</v>
-      </c>
       <c r="E6" s="95" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -2347,114 +2320,114 @@
     </row>
     <row r="9" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="97" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="96" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E10" s="95" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="96" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="96" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="96" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E16" s="95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="96" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E18" s="95" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2481,15 +2454,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
@@ -2508,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="86" t="s">
         <v>3</v>
@@ -2516,13 +2489,13 @@
     </row>
     <row r="5" spans="1:7" s="9" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D5" s="13">
         <v>5</v>
@@ -2539,13 +2512,13 @@
     </row>
     <row r="6" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D6" s="13">
         <v>10</v>
@@ -2562,13 +2535,13 @@
     </row>
     <row r="7" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D7" s="13">
         <v>7</v>
@@ -2585,13 +2558,13 @@
     </row>
     <row r="8" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D8" s="13">
         <v>5</v>
@@ -2603,18 +2576,18 @@
         <v>7</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -2631,13 +2604,13 @@
     </row>
     <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
@@ -2654,13 +2627,13 @@
     </row>
     <row r="11" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
@@ -2677,13 +2650,13 @@
     </row>
     <row r="12" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D12" s="13">
         <v>8</v>
@@ -2700,13 +2673,13 @@
     </row>
     <row r="13" spans="1:7" s="120" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="121" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D13" s="124">
         <v>6</v>
@@ -2718,18 +2691,18 @@
         <v>7</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="121" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D14" s="124">
         <v>8</v>
@@ -2741,18 +2714,18 @@
         <v>7</v>
       </c>
       <c r="G14" s="124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="121" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C15" s="123" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D15" s="124">
         <v>4</v>
@@ -2844,7 +2817,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>54</v>
@@ -2858,10 +2831,10 @@
     </row>
     <row r="5" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C5" s="78">
         <v>6</v>
@@ -2869,7 +2842,7 @@
       <c r="D5" s="78">
         <v>2</v>
       </c>
-      <c r="E5" s="167">
+      <c r="E5" s="141">
         <v>4</v>
       </c>
       <c r="F5" s="78" t="s">
@@ -2878,10 +2851,10 @@
     </row>
     <row r="6" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C6" s="78">
         <v>6</v>
@@ -2889,7 +2862,7 @@
       <c r="D6" s="78">
         <v>2</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="142">
         <v>4</v>
       </c>
       <c r="F6" s="78" t="s">
@@ -2899,10 +2872,10 @@
     </row>
     <row r="7" spans="1:9" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C7" s="78">
         <v>6</v>
@@ -2910,7 +2883,7 @@
       <c r="D7" s="78">
         <v>2</v>
       </c>
-      <c r="E7" s="169">
+      <c r="E7" s="143">
         <v>4</v>
       </c>
       <c r="F7" s="78" t="s">
@@ -2921,22 +2894,22 @@
       <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="160" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="162">
+      <c r="A8" s="133" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="136">
         <v>11</v>
       </c>
-      <c r="D8" s="162">
-        <v>1</v>
-      </c>
-      <c r="E8" s="170">
+      <c r="D8" s="136">
+        <v>1</v>
+      </c>
+      <c r="E8" s="144">
         <v>3</v>
       </c>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="136" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="90"/>
@@ -2944,22 +2917,22 @@
       <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="161" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="162">
+      <c r="A9" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="136">
         <v>11</v>
       </c>
-      <c r="D9" s="162">
-        <v>1</v>
-      </c>
-      <c r="E9" s="170">
+      <c r="D9" s="136">
+        <v>1</v>
+      </c>
+      <c r="E9" s="144">
         <v>3</v>
       </c>
-      <c r="F9" s="162" t="s">
+      <c r="F9" s="136" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="90"/>
@@ -2967,22 +2940,22 @@
       <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="159" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="163" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="162">
+      <c r="A10" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="136">
         <v>11</v>
       </c>
-      <c r="D10" s="162">
-        <v>1</v>
-      </c>
-      <c r="E10" s="170">
+      <c r="D10" s="136">
+        <v>1</v>
+      </c>
+      <c r="E10" s="144">
         <v>3</v>
       </c>
-      <c r="F10" s="162" t="s">
+      <c r="F10" s="136" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="90"/>
@@ -2991,10 +2964,10 @@
     </row>
     <row r="11" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C11" s="78">
         <v>8</v>
@@ -3002,7 +2975,7 @@
       <c r="D11" s="78">
         <v>1</v>
       </c>
-      <c r="E11" s="168">
+      <c r="E11" s="142">
         <v>3</v>
       </c>
       <c r="F11" s="78" t="s">
@@ -3014,10 +2987,10 @@
     </row>
     <row r="12" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C12" s="78">
         <v>8</v>
@@ -3025,7 +2998,7 @@
       <c r="D12" s="78">
         <v>1</v>
       </c>
-      <c r="E12" s="168">
+      <c r="E12" s="142">
         <v>3</v>
       </c>
       <c r="F12" s="78" t="s">
@@ -3037,10 +3010,10 @@
     </row>
     <row r="13" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C13" s="78">
         <v>8</v>
@@ -3048,7 +3021,7 @@
       <c r="D13" s="78">
         <v>1</v>
       </c>
-      <c r="E13" s="168">
+      <c r="E13" s="142">
         <v>3</v>
       </c>
       <c r="F13" s="78" t="s">
@@ -3060,21 +3033,21 @@
     </row>
     <row r="14" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="161" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="162">
+        <v>239</v>
+      </c>
+      <c r="B14" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="136">
         <v>6</v>
       </c>
-      <c r="D14" s="162">
-        <v>2</v>
-      </c>
-      <c r="E14" s="170">
-        <v>4</v>
-      </c>
-      <c r="F14" s="162" t="s">
+      <c r="D14" s="136">
+        <v>2</v>
+      </c>
+      <c r="E14" s="144">
+        <v>4</v>
+      </c>
+      <c r="F14" s="136" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="90"/>
@@ -3083,21 +3056,21 @@
     </row>
     <row r="15" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="162">
+        <v>240</v>
+      </c>
+      <c r="B15" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="136">
         <v>6</v>
       </c>
-      <c r="D15" s="162">
-        <v>2</v>
-      </c>
-      <c r="E15" s="170">
-        <v>4</v>
-      </c>
-      <c r="F15" s="162" t="s">
+      <c r="D15" s="136">
+        <v>2</v>
+      </c>
+      <c r="E15" s="144">
+        <v>4</v>
+      </c>
+      <c r="F15" s="136" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="90"/>
@@ -3106,21 +3079,21 @@
     </row>
     <row r="16" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="160" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="162">
+        <v>241</v>
+      </c>
+      <c r="B16" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="136">
         <v>6</v>
       </c>
-      <c r="D16" s="162">
-        <v>2</v>
-      </c>
-      <c r="E16" s="170">
-        <v>4</v>
-      </c>
-      <c r="F16" s="162" t="s">
+      <c r="D16" s="136">
+        <v>2</v>
+      </c>
+      <c r="E16" s="144">
+        <v>4</v>
+      </c>
+      <c r="F16" s="136" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="90"/>
@@ -3129,10 +3102,10 @@
     </row>
     <row r="17" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C17" s="78">
         <v>3</v>
@@ -3140,7 +3113,7 @@
       <c r="D17" s="78">
         <v>1</v>
       </c>
-      <c r="E17" s="168">
+      <c r="E17" s="142">
         <v>3</v>
       </c>
       <c r="F17" s="78" t="s">
@@ -3152,10 +3125,10 @@
     </row>
     <row r="18" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C18" s="78">
         <v>3</v>
@@ -3163,7 +3136,7 @@
       <c r="D18" s="78">
         <v>1</v>
       </c>
-      <c r="E18" s="168">
+      <c r="E18" s="142">
         <v>3</v>
       </c>
       <c r="F18" s="78" t="s">
@@ -3175,10 +3148,10 @@
     </row>
     <row r="19" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C19" s="78">
         <v>3</v>
@@ -3186,7 +3159,7 @@
       <c r="D19" s="78">
         <v>1</v>
       </c>
-      <c r="E19" s="168">
+      <c r="E19" s="142">
         <v>3</v>
       </c>
       <c r="F19" s="78" t="s">
@@ -3198,21 +3171,21 @@
     </row>
     <row r="20" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="161" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="162">
+        <v>245</v>
+      </c>
+      <c r="B20" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="136">
         <v>6</v>
       </c>
-      <c r="D20" s="162">
-        <v>1</v>
-      </c>
-      <c r="E20" s="170">
+      <c r="D20" s="136">
+        <v>1</v>
+      </c>
+      <c r="E20" s="144">
         <v>3</v>
       </c>
-      <c r="F20" s="162" t="s">
+      <c r="F20" s="136" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="90"/>
@@ -3221,21 +3194,21 @@
     </row>
     <row r="21" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="B21" s="163" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="162">
+        <v>246</v>
+      </c>
+      <c r="B21" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="136">
         <v>6</v>
       </c>
-      <c r="D21" s="162">
-        <v>1</v>
-      </c>
-      <c r="E21" s="170">
+      <c r="D21" s="136">
+        <v>1</v>
+      </c>
+      <c r="E21" s="144">
         <v>3</v>
       </c>
-      <c r="F21" s="162" t="s">
+      <c r="F21" s="136" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="90"/>
@@ -3244,21 +3217,21 @@
     </row>
     <row r="22" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="160" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="162">
+        <v>247</v>
+      </c>
+      <c r="B22" s="134" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="136">
         <v>6</v>
       </c>
-      <c r="D22" s="162">
-        <v>1</v>
-      </c>
-      <c r="E22" s="170">
+      <c r="D22" s="136">
+        <v>1</v>
+      </c>
+      <c r="E22" s="144">
         <v>3</v>
       </c>
-      <c r="F22" s="162" t="s">
+      <c r="F22" s="136" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="90"/>
@@ -3267,10 +3240,10 @@
     </row>
     <row r="23" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C23" s="78">
         <v>6</v>
@@ -3278,7 +3251,7 @@
       <c r="D23" s="78">
         <v>2</v>
       </c>
-      <c r="E23" s="167">
+      <c r="E23" s="141">
         <v>4</v>
       </c>
       <c r="F23" s="78" t="s">
@@ -3290,18 +3263,18 @@
     </row>
     <row r="24" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="169">
+        <v>222</v>
+      </c>
+      <c r="C24" s="143">
         <v>6</v>
       </c>
-      <c r="D24" s="169">
-        <v>2</v>
-      </c>
-      <c r="E24" s="168">
+      <c r="D24" s="143">
+        <v>2</v>
+      </c>
+      <c r="E24" s="142">
         <v>4</v>
       </c>
       <c r="F24" s="78" t="s">
@@ -3313,18 +3286,18 @@
     </row>
     <row r="25" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="167">
+        <v>223</v>
+      </c>
+      <c r="C25" s="141">
         <v>6</v>
       </c>
-      <c r="D25" s="167">
-        <v>2</v>
-      </c>
-      <c r="E25" s="169">
+      <c r="D25" s="141">
+        <v>2</v>
+      </c>
+      <c r="E25" s="143">
         <v>4</v>
       </c>
       <c r="F25" s="78" t="s">
@@ -3336,21 +3309,21 @@
     </row>
     <row r="26" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" s="161" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="171">
+        <v>251</v>
+      </c>
+      <c r="B26" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="145">
         <v>9</v>
       </c>
-      <c r="D26" s="170">
+      <c r="D26" s="144">
         <v>3</v>
       </c>
-      <c r="E26" s="170">
-        <v>4</v>
-      </c>
-      <c r="F26" s="162" t="s">
+      <c r="E26" s="144">
+        <v>4</v>
+      </c>
+      <c r="F26" s="136" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="90"/>
@@ -3359,21 +3332,21 @@
     </row>
     <row r="27" spans="1:9" s="70" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="B27" s="163" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="172">
+        <v>252</v>
+      </c>
+      <c r="B27" s="137" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="146">
         <v>9</v>
       </c>
-      <c r="D27" s="172">
+      <c r="D27" s="146">
         <v>3</v>
       </c>
-      <c r="E27" s="170">
-        <v>4</v>
-      </c>
-      <c r="F27" s="162" t="s">
+      <c r="E27" s="144">
+        <v>4</v>
+      </c>
+      <c r="F27" s="136" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="90"/>
@@ -3382,10 +3355,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="166" t="s">
-        <v>239</v>
+        <v>253</v>
+      </c>
+      <c r="B28" s="140" t="s">
+        <v>226</v>
       </c>
       <c r="C28" s="78">
         <v>7</v>
@@ -3396,8 +3369,8 @@
       <c r="E28" s="78">
         <v>3</v>
       </c>
-      <c r="F28" s="175" t="s">
-        <v>99</v>
+      <c r="F28" s="149" t="s">
+        <v>98</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -3405,22 +3378,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="173">
+        <v>254</v>
+      </c>
+      <c r="B29" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="147">
         <v>9</v>
       </c>
-      <c r="D29" s="173">
-        <v>1</v>
-      </c>
-      <c r="E29" s="173">
+      <c r="D29" s="147">
+        <v>1</v>
+      </c>
+      <c r="E29" s="147">
         <v>3</v>
       </c>
-      <c r="F29" s="176" t="s">
-        <v>99</v>
+      <c r="F29" s="150" t="s">
+        <v>98</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -3428,22 +3401,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="174">
+        <v>255</v>
+      </c>
+      <c r="B30" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="148">
         <v>5</v>
       </c>
-      <c r="D30" s="174">
-        <v>1</v>
-      </c>
-      <c r="E30" s="174">
+      <c r="D30" s="148">
+        <v>1</v>
+      </c>
+      <c r="E30" s="148">
         <v>3</v>
       </c>
-      <c r="F30" s="175" t="s">
-        <v>99</v>
+      <c r="F30" s="149" t="s">
+        <v>98</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -3451,22 +3424,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="165" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="174">
+        <v>256</v>
+      </c>
+      <c r="B31" s="139" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="148">
         <v>5</v>
       </c>
-      <c r="D31" s="174">
-        <v>1</v>
-      </c>
-      <c r="E31" s="174">
+      <c r="D31" s="148">
+        <v>1</v>
+      </c>
+      <c r="E31" s="148">
         <v>3</v>
       </c>
-      <c r="F31" s="175" t="s">
-        <v>99</v>
+      <c r="F31" s="149" t="s">
+        <v>98</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -3548,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,54 +3533,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="135" t="s">
+      <c r="F4" s="153" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="153" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
     </row>
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>21</v>
@@ -3627,10 +3600,10 @@
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>21</v>
@@ -3650,10 +3623,10 @@
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C8" s="92" t="s">
         <v>21</v>
@@ -3673,10 +3646,10 @@
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C9" s="92" t="s">
         <v>21</v>
@@ -3696,62 +3669,54 @@
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="C10" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="78">
-        <v>8</v>
-      </c>
-      <c r="E10" s="78">
-        <v>1</v>
-      </c>
-      <c r="F10" s="78">
-        <v>4</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>4</v>
-      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="C11" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C12" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="78">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E12" s="78">
         <v>2</v>
@@ -3764,96 +3729,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="78">
-        <v>11</v>
-      </c>
-      <c r="E13" s="78">
-        <v>2</v>
-      </c>
-      <c r="F13" s="78">
-        <v>5</v>
-      </c>
-      <c r="G13" s="78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="78">
-        <v>7</v>
-      </c>
-      <c r="E14" s="78">
-        <v>2</v>
-      </c>
-      <c r="F14" s="78">
-        <v>5</v>
-      </c>
-      <c r="G14" s="78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="78">
-        <v>12</v>
-      </c>
-      <c r="E15" s="78">
-        <v>2</v>
-      </c>
-      <c r="F15" s="78">
-        <v>7</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="78">
-        <v>9</v>
-      </c>
-      <c r="E16" s="78">
-        <v>2</v>
-      </c>
-      <c r="F16" s="78">
-        <v>7</v>
-      </c>
-      <c r="G16" s="78" t="s">
-        <v>9</v>
-      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17"/>
@@ -3896,15 +3781,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
@@ -3923,7 +3808,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>3</v>
@@ -3931,10 +3816,10 @@
     </row>
     <row r="5" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C5" s="104" t="s">
         <v>23</v>
@@ -3954,10 +3839,10 @@
     </row>
     <row r="6" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C6" s="104" t="s">
         <v>23</v>
@@ -3977,10 +3862,10 @@
     </row>
     <row r="7" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="106" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C7" s="108" t="s">
         <v>23</v>
@@ -4000,10 +3885,10 @@
     </row>
     <row r="8" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="106" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C8" s="108" t="s">
         <v>23</v>
@@ -4024,7 +3909,7 @@
     <row r="9" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="103" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C9" s="112" t="s">
         <v>23</v>
@@ -4037,7 +3922,7 @@
     <row r="10" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="102"/>
       <c r="B10" s="103" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C10" s="112" t="s">
         <v>23</v>
@@ -4050,7 +3935,7 @@
     <row r="11" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="106"/>
       <c r="B11" s="107" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C11" s="125" t="s">
         <v>23</v>
@@ -4063,7 +3948,7 @@
     <row r="12" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="106"/>
       <c r="B12" s="107" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C12" s="125" t="s">
         <v>23</v>
@@ -4075,10 +3960,10 @@
     </row>
     <row r="13" spans="1:7" s="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C13" s="104" t="s">
         <v>23</v>
@@ -4098,10 +3983,10 @@
     </row>
     <row r="14" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C14" s="104" t="s">
         <v>23</v>
@@ -4121,10 +4006,10 @@
     </row>
     <row r="15" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C15" s="108" t="s">
         <v>23</v>
@@ -4144,10 +4029,10 @@
     </row>
     <row r="16" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="106" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C16" s="108" t="s">
         <v>23</v>
@@ -4167,10 +4052,10 @@
     </row>
     <row r="17" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C17" s="104" t="s">
         <v>23</v>
@@ -4190,10 +4075,10 @@
     </row>
     <row r="18" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C18" s="104" t="s">
         <v>23</v>
@@ -4213,10 +4098,10 @@
     </row>
     <row r="19" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="106" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C19" s="108" t="s">
         <v>23</v>
@@ -4236,10 +4121,10 @@
     </row>
     <row r="20" spans="1:7" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="106" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C20" s="108" t="s">
         <v>23</v>
@@ -4259,10 +4144,10 @@
     </row>
     <row r="21" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B21" s="103" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C21" s="104" t="s">
         <v>23</v>
@@ -4282,10 +4167,10 @@
     </row>
     <row r="22" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C22" s="112" t="s">
         <v>23</v>
@@ -4306,7 +4191,7 @@
     <row r="23" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="106"/>
       <c r="B23" s="107" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C23" s="112" t="s">
         <v>23</v>
@@ -4319,7 +4204,7 @@
     <row r="24" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="126"/>
       <c r="B24" s="127" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C24" s="112" t="s">
         <v>23</v>
@@ -4414,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4429,16 +4314,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G3" s="114"/>
@@ -4466,7 +4351,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="13">
         <v>8</v>
@@ -4480,7 +4365,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C6" s="13">
         <v>6</v>
@@ -4494,7 +4379,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C7" s="13">
         <v>7</v>
@@ -4508,7 +4393,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C8" s="13">
         <v>7</v>
@@ -4517,12 +4402,12 @@
         <v>2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="13">
         <v>6</v>
@@ -4536,7 +4421,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="13">
         <v>12</v>
@@ -4550,7 +4435,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="13">
         <v>6</v>
@@ -4564,7 +4449,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="13">
         <v>12</v>
@@ -4578,7 +4463,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -4592,7 +4477,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C14" s="13">
         <v>6</v>
@@ -4601,12 +4486,12 @@
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="13">
         <v>11</v>
@@ -4615,12 +4500,12 @@
         <v>2</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="13">
         <v>7</v>
@@ -4634,7 +4519,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="13">
         <v>8</v>
@@ -4648,7 +4533,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -4676,18 +4561,18 @@
       <c r="E20" s="84"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="G21" s="143" t="s">
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="G21" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H22" s="2"/>
@@ -4722,7 +4607,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="115">
         <v>9</v>
@@ -4734,7 +4619,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="116" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H24" s="88">
         <v>9</v>
@@ -4748,7 +4633,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="115">
         <v>9</v>
@@ -4760,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="116" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H25" s="88">
         <v>7</v>
@@ -4774,7 +4659,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="115">
         <v>9</v>
@@ -4786,7 +4671,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="116" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H26" s="88">
         <v>8</v>
@@ -4800,7 +4685,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="115">
         <v>7</v>
@@ -4812,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="116" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H27" s="88">
         <v>8</v>
@@ -4826,7 +4711,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="115">
         <v>7</v>
@@ -4838,7 +4723,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="116" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H28" s="88">
         <v>8</v>
@@ -4852,7 +4737,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="115">
         <v>7</v>
@@ -4864,7 +4749,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="116" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H29" s="88">
         <v>7</v>
@@ -4878,7 +4763,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="115">
         <v>8</v>
@@ -4890,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="116" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H30" s="88">
         <v>13</v>
@@ -4904,7 +4789,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="115">
         <v>8</v>
@@ -4916,7 +4801,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="116" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H31" s="88">
         <v>11</v>
@@ -4931,7 +4816,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="115">
         <v>7</v>
@@ -4943,7 +4828,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="116" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H32" s="88">
         <v>7</v>
@@ -4958,7 +4843,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="115">
         <v>7</v>
@@ -4983,7 +4868,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="115">
         <v>7</v>
@@ -4994,17 +4879,17 @@
       <c r="E34" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="139" t="s">
+      <c r="G34" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="115">
         <v>13</v>
@@ -5022,7 +4907,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="115">
         <v>13</v>
@@ -5049,7 +4934,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="115">
         <v>13</v>
@@ -5061,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="117" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H37" s="118">
         <v>2</v>
@@ -5076,7 +4961,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="115">
         <v>7</v>
@@ -5088,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="117" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H38" s="118">
         <v>8</v>
@@ -5103,7 +4988,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="115">
         <v>7</v>
@@ -5115,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="117" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H39" s="118">
         <v>2</v>
@@ -5130,7 +5015,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="115">
         <v>7</v>
@@ -5142,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="117" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H40" s="118">
         <v>6</v>
@@ -5157,7 +5042,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="115">
         <v>13</v>
@@ -5169,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="117" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H41" s="118">
         <v>2</v>
@@ -5184,7 +5069,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="115">
         <v>13</v>
@@ -5196,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="117" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H42" s="118">
         <v>6</v>
@@ -5211,7 +5096,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="89">
         <v>13</v>
@@ -5223,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="117" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H43" s="118">
         <v>2</v>
@@ -5238,7 +5123,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="93" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" s="93">
         <v>11</v>
@@ -5250,7 +5135,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="117" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H44" s="118">
         <v>12</v>
@@ -5265,7 +5150,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C45" s="93">
         <v>11</v>
@@ -5277,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="117" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H45" s="118">
         <v>2</v>
@@ -5302,7 +5187,7 @@
       </c>
       <c r="E46" s="5"/>
       <c r="G46" s="117" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H46" s="118">
         <v>6</v>
@@ -5321,7 +5206,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="G47" s="117" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H47" s="118">
         <v>2</v>
@@ -5339,7 +5224,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="G48" s="117" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H48" s="118">
         <v>12</v>
@@ -5358,7 +5243,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="G49" s="117" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H49" s="118">
         <v>2</v>
@@ -5376,7 +5261,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="G50" s="117" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H50" s="118">
         <v>10</v>
@@ -5462,7 +5347,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="163" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -5483,7 +5368,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="145"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="18" t="s">
         <v>30</v>
       </c>
@@ -5502,7 +5387,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="146"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
@@ -5521,7 +5406,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="165" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -5542,7 +5427,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="145"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="30" t="s">
         <v>30</v>
       </c>
@@ -5561,7 +5446,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="146"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="32" t="s">
         <v>31</v>
       </c>
@@ -5580,7 +5465,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="165" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -5601,7 +5486,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="145"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
@@ -5620,7 +5505,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="146"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
@@ -5639,7 +5524,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="165" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -5660,7 +5545,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="145"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="24" t="s">
         <v>30</v>
       </c>
@@ -5679,7 +5564,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="146"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="26" t="s">
         <v>31</v>
       </c>
@@ -5697,7 +5582,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="165" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -5717,7 +5602,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="145"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="42" t="s">
         <v>30</v>
       </c>
@@ -5735,7 +5620,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="146"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="44" t="s">
         <v>31</v>
       </c>
@@ -5754,10 +5639,10 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
       <c r="F19" s="16" t="s">
         <v>28</v>
       </c>
@@ -5812,12 +5697,12 @@
       <c r="B5" s="48">
         <v>4</v>
       </c>
-      <c r="F5" s="152" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="153"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
+      <c r="F5" s="170" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="171"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
@@ -5829,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="74" t="s">
         <v>72</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>73</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -5878,11 +5763,11 @@
       <c r="B9" s="48">
         <v>2</v>
       </c>
-      <c r="F9" s="154" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="F9" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="173"/>
+      <c r="H9" s="174"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -5896,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="56" t="s">
         <v>58</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>59</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5952,11 +5837,11 @@
       <c r="B13" s="48">
         <v>2</v>
       </c>
-      <c r="F13" s="157" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
+      <c r="F13" s="175" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -5970,13 +5855,13 @@
         <v>3</v>
       </c>
       <c r="F14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="H14" s="56" t="s">
         <v>58</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>59</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -6025,12 +5910,12 @@
       <c r="B17" s="48">
         <v>0</v>
       </c>
-      <c r="F17" s="158" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
+      <c r="F17" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -6044,20 +5929,20 @@
         <v>2</v>
       </c>
       <c r="F18" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="H18" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="I18" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>65</v>
-      </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6088,25 +5973,25 @@
       <c r="N19" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="148" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="150"/>
+      <c r="F21" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="168"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F22" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="H22" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="59" t="s">
-        <v>68</v>
-      </c>
       <c r="I22" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
